--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahsan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE523A2-BDE9-47AF-BF20-65AFD8E271DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8563-8799-48C1-A667-0E91947F05C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F92CCDC7-5D3B-4A26-A4DA-3569B9F6E02C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Associate</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>yyyyyyyyyyyyyyy</t>
   </si>
 </sst>
 </file>
@@ -934,10 +940,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahsan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051D8563-8799-48C1-A667-0E91947F05C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC401D9-F7B7-45CA-96E2-4F32C053B293}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F92CCDC7-5D3B-4A26-A4DA-3569B9F6E02C}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>Gurgaon</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>yyyyyyyyyyyyyyy</t>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F43F1D8-49EA-483B-8B5A-3C1AA1415F8C}">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,12 +940,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
